--- a/Data/ROY Data/roy_95_96.xlsx
+++ b/Data/ROY Data/roy_95_96.xlsx
@@ -118,7 +118,7 @@
     <t>MIN</t>
   </si>
   <si>
-    <t>1994-95</t>
+    <t>1995-96</t>
   </si>
 </sst>
 </file>
